--- a/2024 Proposed Workbook.xlsx
+++ b/2024 Proposed Workbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinergyireland-my.sharepoint.com/personal/jamie_donnelly_pinergy_ie/Documents/Desktop/Kerry Social Farming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamieDonnelly\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{126F3DC9-54B1-4261-95E9-924999B03D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F23102A-1B3A-4B85-B336-5F63DB8163A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21AF142-7A37-4FAC-B848-D2C82F1B8635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D79B4666-A1D8-4BCF-A80C-1F3622DB3B6F}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{D79B4666-A1D8-4BCF-A80C-1F3622DB3B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="90">
   <si>
     <t>Gender</t>
   </si>
@@ -703,10 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D5425-FF1E-4DFD-8033-82B84505753A}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2850,6 +2851,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>45507</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="1">
+        <v>51.891863000000001</v>
+      </c>
+      <c r="J60" s="1">
+        <v>-10.202678000000001</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R59" xr:uid="{7C9D5425-FF1E-4DFD-8033-82B84505753A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R59">

--- a/2024 Proposed Workbook.xlsx
+++ b/2024 Proposed Workbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamieDonnelly\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinergyireland-my.sharepoint.com/personal/jamie_donnelly_pinergy_ie/Documents/Desktop/Kerry Social Farming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21AF142-7A37-4FAC-B848-D2C82F1B8635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{126F3DC9-54B1-4261-95E9-924999B03D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F23102A-1B3A-4B85-B336-5F63DB8163A1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{D79B4666-A1D8-4BCF-A80C-1F3622DB3B6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D79B4666-A1D8-4BCF-A80C-1F3622DB3B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="90">
   <si>
     <t>Gender</t>
   </si>
@@ -703,11 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D5425-FF1E-4DFD-8033-82B84505753A}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2851,41 +2850,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>45507</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="1">
-        <v>51.891863000000001</v>
-      </c>
-      <c r="J60" s="1">
-        <v>-10.202678000000001</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:R59" xr:uid="{7C9D5425-FF1E-4DFD-8033-82B84505753A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R59">

--- a/2024 Proposed Workbook.xlsx
+++ b/2024 Proposed Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinergyireland-my.sharepoint.com/personal/jamie_donnelly_pinergy_ie/Documents/Desktop/Kerry Social Farming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{126F3DC9-54B1-4261-95E9-924999B03D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F23102A-1B3A-4B85-B336-5F63DB8163A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{435BE171-DA37-4D17-BA8B-8A7DD11AF6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D79B4666-A1D8-4BCF-A80C-1F3622DB3B6F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D79B4666-A1D8-4BCF-A80C-1F3622DB3B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="94">
   <si>
     <t>Gender</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>Participants</t>
+  </si>
+  <si>
+    <t>Derek George</t>
+  </si>
+  <si>
+    <t>50 to 60 Years</t>
+  </si>
+  <si>
+    <t>SKDP</t>
+  </si>
+  <si>
+    <t>Julie Brosnan</t>
   </si>
 </sst>
 </file>
@@ -703,35 +715,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D5425-FF1E-4DFD-8033-82B84505753A}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="G46" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -787,7 +799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>45303</v>
       </c>
@@ -822,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>45303</v>
       </c>
@@ -863,7 +875,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>45303</v>
       </c>
@@ -898,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>45310</v>
       </c>
@@ -933,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>45311</v>
       </c>
@@ -968,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>45315</v>
       </c>
@@ -1006,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>45318</v>
       </c>
@@ -1041,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>45319</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>45320</v>
       </c>
@@ -1111,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>45325</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>45332</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>45332</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>45333</v>
       </c>
@@ -1251,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>45335</v>
       </c>
@@ -1286,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>45337</v>
       </c>
@@ -1321,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>45338</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>45339</v>
       </c>
@@ -1394,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>45340</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>45343</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>45343</v>
       </c>
@@ -1499,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>45348</v>
       </c>
@@ -1537,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>45352</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>45352</v>
       </c>
@@ -1607,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>45358</v>
       </c>
@@ -1642,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>45360</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>45368</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>45371</v>
       </c>
@@ -1747,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>45379</v>
       </c>
@@ -1785,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>45385</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>45385</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>45388</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>45389</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>45392</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>45393</v>
       </c>
@@ -2004,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>45395</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>45396</v>
       </c>
@@ -2074,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>45402</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>45403</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>45405</v>
       </c>
@@ -2179,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>45406</v>
       </c>
@@ -2214,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>45411</v>
       </c>
@@ -2249,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>45413</v>
       </c>
@@ -2284,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>45418</v>
       </c>
@@ -2319,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>45423</v>
       </c>
@@ -2354,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45431</v>
       </c>
@@ -2389,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>45435</v>
       </c>
@@ -2424,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>45455</v>
       </c>
@@ -2459,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>45460</v>
       </c>
@@ -2494,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>45466</v>
       </c>
@@ -2529,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>45468</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>45475</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>45479</v>
       </c>
@@ -2634,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>45494</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>45494</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>45495</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>45496</v>
       </c>
@@ -2780,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>45502</v>
       </c>
@@ -2815,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>45503</v>
       </c>
@@ -2847,6 +2859,41 @@
         <v>-9.3397469999999991</v>
       </c>
       <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>45755</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="1">
+        <v>52.046317000000002</v>
+      </c>
+      <c r="J60" s="1">
+        <v>-9.3397469999999991</v>
+      </c>
+      <c r="K60">
         <v>1</v>
       </c>
     </row>

--- a/2024 Proposed Workbook.xlsx
+++ b/2024 Proposed Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{435BE171-DA37-4D17-BA8B-8A7DD11AF6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C41367A-DF48-4E4D-9F21-33802DDAC11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D79B4666-A1D8-4BCF-A80C-1F3622DB3B6F}"/>
+    <workbookView xWindow="-28920" yWindow="-1875" windowWidth="29040" windowHeight="15720" xr2:uid="{D79B4666-A1D8-4BCF-A80C-1F3622DB3B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="93">
   <si>
     <t>Gender</t>
   </si>
@@ -311,16 +311,13 @@
     <t>Participants</t>
   </si>
   <si>
+    <t>MOnday</t>
+  </si>
+  <si>
     <t>Derek George</t>
   </si>
   <si>
-    <t>50 to 60 Years</t>
-  </si>
-  <si>
-    <t>SKDP</t>
-  </si>
-  <si>
-    <t>Julie Brosnan</t>
+    <t>55 to 56 Years</t>
   </si>
 </sst>
 </file>
@@ -335,13 +332,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -409,39 +406,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -493,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -604,6 +601,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -612,13 +616,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -683,31 +680,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -717,33 +694,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D5425-FF1E-4DFD-8033-82B84505753A}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G46" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -799,7 +776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45303</v>
       </c>
@@ -834,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45303</v>
       </c>
@@ -875,7 +852,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45303</v>
       </c>
@@ -910,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45310</v>
       </c>
@@ -945,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45311</v>
       </c>
@@ -980,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45315</v>
       </c>
@@ -1018,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45318</v>
       </c>
@@ -1053,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45319</v>
       </c>
@@ -1088,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45320</v>
       </c>
@@ -1123,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45325</v>
       </c>
@@ -1158,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45332</v>
       </c>
@@ -1193,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45332</v>
       </c>
@@ -1228,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45333</v>
       </c>
@@ -1263,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45335</v>
       </c>
@@ -1298,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45337</v>
       </c>
@@ -1333,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45338</v>
       </c>
@@ -1371,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45339</v>
       </c>
@@ -1406,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45340</v>
       </c>
@@ -1441,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45343</v>
       </c>
@@ -1476,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45343</v>
       </c>
@@ -1511,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45348</v>
       </c>
@@ -1549,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45352</v>
       </c>
@@ -1584,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45352</v>
       </c>
@@ -1619,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45358</v>
       </c>
@@ -1654,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45360</v>
       </c>
@@ -1689,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45368</v>
       </c>
@@ -1724,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45371</v>
       </c>
@@ -1759,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45379</v>
       </c>
@@ -1797,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45385</v>
       </c>
@@ -1838,7 +1815,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45385</v>
       </c>
@@ -1873,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45388</v>
       </c>
@@ -1908,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45389</v>
       </c>
@@ -1943,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45392</v>
       </c>
@@ -1978,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45393</v>
       </c>
@@ -2016,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45395</v>
       </c>
@@ -2051,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45396</v>
       </c>
@@ -2086,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45402</v>
       </c>
@@ -2121,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>45403</v>
       </c>
@@ -2156,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45405</v>
       </c>
@@ -2191,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45406</v>
       </c>
@@ -2226,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45411</v>
       </c>
@@ -2261,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45413</v>
       </c>
@@ -2296,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45418</v>
       </c>
@@ -2331,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45423</v>
       </c>
@@ -2366,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45431</v>
       </c>
@@ -2401,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45435</v>
       </c>
@@ -2436,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45455</v>
       </c>
@@ -2471,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45460</v>
       </c>
@@ -2506,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45466</v>
       </c>
@@ -2541,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45468</v>
       </c>
@@ -2576,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45475</v>
       </c>
@@ -2611,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>45479</v>
       </c>
@@ -2646,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45494</v>
       </c>
@@ -2684,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45494</v>
       </c>
@@ -2719,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45495</v>
       </c>
@@ -2754,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45496</v>
       </c>
@@ -2792,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45502</v>
       </c>
@@ -2827,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45503</v>
       </c>
@@ -2862,36 +2839,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>45755</v>
+        <v>45292</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F60" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
       </c>
       <c r="I60" s="1">
-        <v>52.046317000000002</v>
+        <v>52</v>
       </c>
       <c r="J60" s="1">
-        <v>-9.3397469999999991</v>
+        <v>-9</v>
       </c>
       <c r="K60">
         <v>1</v>

--- a/2024 Proposed Workbook.xlsx
+++ b/2024 Proposed Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C41367A-DF48-4E4D-9F21-33802DDAC11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4120CA52-46E4-4240-97E8-651A2C9C736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1875" windowWidth="29040" windowHeight="15720" xr2:uid="{D79B4666-A1D8-4BCF-A80C-1F3622DB3B6F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D79B4666-A1D8-4BCF-A80C-1F3622DB3B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="96">
   <si>
     <t>Gender</t>
   </si>
@@ -318,6 +318,15 @@
   </si>
   <si>
     <t>55 to 56 Years</t>
+  </si>
+  <si>
+    <t>julie thorne</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>40 to 50 years</t>
   </si>
 </sst>
 </file>
@@ -396,9 +405,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -436,7 +445,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -542,7 +551,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -684,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,35 +701,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D5425-FF1E-4DFD-8033-82B84505753A}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -776,7 +785,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>45303</v>
       </c>
@@ -811,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>45303</v>
       </c>
@@ -852,7 +861,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>45303</v>
       </c>
@@ -887,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>45310</v>
       </c>
@@ -922,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>45311</v>
       </c>
@@ -957,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>45315</v>
       </c>
@@ -995,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>45318</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>45319</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>45320</v>
       </c>
@@ -1100,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>45325</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>45332</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>45332</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>45333</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>45335</v>
       </c>
@@ -1275,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>45337</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>45338</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>45339</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>45340</v>
       </c>
@@ -1418,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>45343</v>
       </c>
@@ -1453,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>45343</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>45348</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>45352</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>45352</v>
       </c>
@@ -1596,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>45358</v>
       </c>
@@ -1631,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>45360</v>
       </c>
@@ -1666,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>45368</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>45371</v>
       </c>
@@ -1736,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>45379</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>45385</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>45385</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>45388</v>
       </c>
@@ -1885,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>45389</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>45392</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>45393</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>45395</v>
       </c>
@@ -2028,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>45396</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>45402</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>45403</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>45405</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>45406</v>
       </c>
@@ -2203,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>45411</v>
       </c>
@@ -2238,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>45413</v>
       </c>
@@ -2273,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>45418</v>
       </c>
@@ -2308,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>45423</v>
       </c>
@@ -2343,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45431</v>
       </c>
@@ -2378,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>45435</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>45455</v>
       </c>
@@ -2448,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>45460</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>45466</v>
       </c>
@@ -2518,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>45468</v>
       </c>
@@ -2553,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>45475</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>45479</v>
       </c>
@@ -2623,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>45494</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>45494</v>
       </c>
@@ -2696,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>45495</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>45496</v>
       </c>
@@ -2769,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>45502</v>
       </c>
@@ -2804,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>45503</v>
       </c>
@@ -2839,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>45292</v>
       </c>
@@ -2871,6 +2880,41 @@
         <v>-9</v>
       </c>
       <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>45799</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="1">
+        <v>54</v>
+      </c>
+      <c r="J61" s="1">
+        <v>-7</v>
+      </c>
+      <c r="K61">
         <v>1</v>
       </c>
     </row>
